--- a/Employee_Analytics_Dashboard.xlsx
+++ b/Employee_Analytics_Dashboard.xlsx
@@ -5,26 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA\Excel\Employee-Analytics-Excel-Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Buddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7E747-A540-4672-A637-838514627818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5901B5-41C2-4542-A51D-679805B0AF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{BED1AE71-A683-4822-B444-221194E6B7BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BED1AE71-A683-4822-B444-221194E6B7BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$58:$A$59</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$58:$B$59</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$60:$E$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$60:$G$61</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$58:$A$59</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$58:$B$59</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$58:$A$59</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$58:$B$59</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Analysis!$A$2:$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Analysis!$B$2:$B$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Analysis!$A$6:$A$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Analysis!$C$6:$C$7</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +31,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -842,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,10 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,13 +1103,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1132,6 +1119,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1288,6 +1282,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1307,6 +1306,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1326,6 +1330,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1347,6 +1356,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1368,6 +1382,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1389,6 +1408,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2426-4468-98A6-9C9A2B9E55E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1726,7 +1750,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$70:$A$74</c:f>
+              <c:f>Analysis!$A$18:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1750,7 +1774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$B$74</c:f>
+              <c:f>Analysis!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1995,7 +2019,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$55</c:f>
+              <c:f>'Raw Data'!$H$6:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2154,7 +2178,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$55</c:f>
+              <c:f>'Raw Data'!$I$6:$I$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2488,7 +2512,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$61</c:f>
+              <c:f>Analysis!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2565,7 +2589,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$62:$A$67</c:f>
+              <c:f>Analysis!$A$10:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2591,7 +2615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$B$67</c:f>
+              <c:f>Analysis!$B$10:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2780,10 +2804,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8422,8 +8446,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6288942" y="2460165"/>
-              <a:ext cx="1935929" cy="1907409"/>
+              <a:off x="6286840" y="2446502"/>
+              <a:ext cx="1935929" cy="1896898"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9002,7 +9026,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E4C39-DF24-4220-8ECF-7F533F0B50F9}" name="Table1" displayName="Table1" ref="A5:L55" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B42E4C39-DF24-4220-8ECF-7F533F0B50F9}" name="Table1" displayName="Table1" ref="A5:L55" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A5:L55" xr:uid="{B42E4C39-DF24-4220-8ECF-7F533F0B50F9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{51596B53-8671-44B8-A162-8B478F993C6D}" name="Employee ID" dataDxfId="10"/>
@@ -9319,10 +9343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BE35F2-7983-4AED-9A6C-D9088354F85A}">
-  <dimension ref="A5:L74"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A5:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9376,7 +9403,7 @@
       <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9414,7 +9441,7 @@
       <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9452,7 +9479,7 @@
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9490,7 +9517,7 @@
       <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9528,7 +9555,7 @@
       <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9566,7 +9593,7 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9604,7 +9631,7 @@
       <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9642,7 +9669,7 @@
       <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9680,7 +9707,7 @@
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9718,7 +9745,7 @@
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9756,7 +9783,7 @@
       <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9794,7 +9821,7 @@
       <c r="K16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9832,7 +9859,7 @@
       <c r="K17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9870,7 +9897,7 @@
       <c r="K18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9908,7 +9935,7 @@
       <c r="K19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9946,7 +9973,7 @@
       <c r="K20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9984,7 +10011,7 @@
       <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10022,7 +10049,7 @@
       <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10060,7 +10087,7 @@
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -10098,7 +10125,7 @@
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>193</v>
       </c>
     </row>
@@ -10136,7 +10163,7 @@
       <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10174,7 +10201,7 @@
       <c r="K26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10212,7 +10239,7 @@
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10250,7 +10277,7 @@
       <c r="K28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10288,7 +10315,7 @@
       <c r="K29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10326,7 +10353,7 @@
       <c r="K30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10364,7 +10391,7 @@
       <c r="K31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10402,7 +10429,7 @@
       <c r="K32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="15" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10440,7 +10467,7 @@
       <c r="K33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10478,7 +10505,7 @@
       <c r="K34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10516,7 +10543,7 @@
       <c r="K35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -10554,7 +10581,7 @@
       <c r="K36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10592,7 +10619,7 @@
       <c r="K37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10630,7 +10657,7 @@
       <c r="K38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="15" t="s">
         <v>205</v>
       </c>
     </row>
@@ -10668,7 +10695,7 @@
       <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="15" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10706,7 +10733,7 @@
       <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="15" t="s">
         <v>189</v>
       </c>
     </row>
@@ -10744,7 +10771,7 @@
       <c r="K41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="15" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10782,7 +10809,7 @@
       <c r="K42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="15" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10820,7 +10847,7 @@
       <c r="K43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10858,7 +10885,7 @@
       <c r="K44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10896,7 +10923,7 @@
       <c r="K45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>181</v>
       </c>
     </row>
@@ -10934,7 +10961,7 @@
       <c r="K46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="15" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10972,7 +10999,7 @@
       <c r="K47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="15" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11010,7 +11037,7 @@
       <c r="K48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="15" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11048,7 +11075,7 @@
       <c r="K49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11086,7 +11113,7 @@
       <c r="K50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11124,7 +11151,7 @@
       <c r="K51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L51" s="15" t="s">
         <v>211</v>
       </c>
     </row>
@@ -11162,7 +11189,7 @@
       <c r="K52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="15" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11200,7 +11227,7 @@
       <c r="K53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="15" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11238,7 +11265,7 @@
       <c r="K54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L54" s="15" t="s">
         <v>214</v>
       </c>
     </row>
@@ -11276,196 +11303,17 @@
       <c r="K55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="11">
-        <f>COUNTIF(K6:K55,"Active")</f>
-        <v>46</v>
-      </c>
-      <c r="C58" s="11">
-        <f>B58/50*100</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="11">
-        <f>COUNTIF(K7:K58,"Inactive")</f>
-        <v>4</v>
-      </c>
-      <c r="C59" s="11">
-        <f>B59/50*100</f>
-        <v>8</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E60" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="11">
-        <f>COUNTIF(Table1[Gender],E60)</f>
-        <v>27</v>
-      </c>
-      <c r="G60" s="11">
-        <f>F60/50*100</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="11">
-        <f>COUNTIF(Table1[Gender],E61)</f>
-        <v>23</v>
-      </c>
-      <c r="G61" s="11">
-        <f>F61/50*100</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="10">
-        <f>COUNTIF(Table1[Department],A62)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="10">
-        <f>COUNTIF(Table1[Department],A63)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="10">
-        <f>COUNTIF(Table1[Department],A64)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="10">
-        <f>COUNTIF(Table1[Department],A65)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="10">
-        <f>COUNTIF(Table1[Department],A66)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="10">
-        <f>COUNTIF(Table1[Department],A67)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
-        <v>5</v>
-      </c>
-      <c r="B70" s="11">
-        <f>COUNTIF(Table1[Performance Rating],A70)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <f>COUNTIF(Table1[Performance Rating],A71)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
-        <v>3</v>
-      </c>
-      <c r="B72" s="11">
-        <f>COUNTIF(Table1[Performance Rating],A72)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
-        <v>2</v>
-      </c>
-      <c r="B73" s="11">
-        <f>COUNTIF(Table1[Performance Rating],A73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
-        <v>1</v>
-      </c>
-      <c r="B74" s="11">
-        <f>COUNTIF(Table1[Performance Rating],A74)</f>
-        <v>0</v>
-      </c>
+      <c r="E57" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -11481,13 +11329,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0860751D-0E01-4FE7-894D-6A30D3DAA8E5}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="11">
+        <f>COUNTIF('Raw Data'!K6:K55,"Active")</f>
+        <v>46</v>
+      </c>
+      <c r="C2" s="11">
+        <f>B2/50*100</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="11">
+        <f>COUNTIF('Raw Data'!K7:K58,"Inactive")</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <f>B3/50*100</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <f>COUNTIF(Table1[Gender],A6)</f>
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
+        <f>B6/50*100</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11">
+        <f>COUNTIF(Table1[Gender],A7)</f>
+        <v>23</v>
+      </c>
+      <c r="C7" s="11">
+        <f>B7/50*100</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10">
+        <f>COUNTIF(Table1[Department],A10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
+        <f>COUNTIF(Table1[Department],A11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10">
+        <f>COUNTIF(Table1[Department],A12)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="10">
+        <f>COUNTIF(Table1[Department],A13)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="10">
+        <f>COUNTIF(Table1[Department],A14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10">
+        <f>COUNTIF(Table1[Department],A15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11">
+        <f>COUNTIF(Table1[Performance Rating],A18)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11">
+        <f>COUNTIF(Table1[Performance Rating],A19)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11">
+        <f>COUNTIF(Table1[Performance Rating],A20)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <f>COUNTIF(Table1[Performance Rating],A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11">
+        <f>COUNTIF(Table1[Performance Rating],A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBBC814-E84C-4798-9B7D-4B0922FC8D04}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
